--- a/Experiments_full_labeled.xlsx
+++ b/Experiments_full_labeled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1501"/>
+  <dimension ref="A1:D1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24455,6 +24455,246 @@
         </is>
       </c>
     </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>0.9103738880342452</v>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>0.9131429335830379</v>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>0.9335855704940286</v>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>0.9105935190746012</v>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>0.9195498341906677</v>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>0.931876825360819</v>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>0.9033083056387533</v>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>0.9176684582666612</v>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>0.9296436380828557</v>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>0.9073664924287331</v>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>0.9199628172657218</v>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>0.9328661548099477</v>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>0.9114820568178826</v>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>0.9167873410389406</v>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>bert-large-cased</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>0.933334284409952</v>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>roberta-large</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments_full_labeled.xlsx
+++ b/Experiments_full_labeled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1516"/>
+  <dimension ref="A1:D1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24695,6 +24695,22 @@
         </is>
       </c>
     </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>500</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>0.9121569256260189</v>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>bert-base-cased</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
